--- a/PCB NG/Plnění.xlsx
+++ b/PCB NG/Plnění.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\STL\PCB NG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D59E2-848B-4BEE-9C75-F12C431245E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D57C3-80B0-4FF2-B2B9-441A9C5635A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{0C12EAB3-5C5A-4529-92B3-802642319947}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0C12EAB3-5C5A-4529-92B3-802642319947}"/>
   </bookViews>
   <sheets>
     <sheet name="Plnění" sheetId="1" r:id="rId1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1287FA39-C09F-4217-8D80-DC22BD0F23FD}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +753,9 @@
       <c r="D9" s="6">
         <v>45234</v>
       </c>
+      <c r="E9" s="6">
+        <v>45241</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
@@ -856,6 +859,9 @@
       <c r="D15" s="6">
         <v>45234</v>
       </c>
+      <c r="E15" s="6">
+        <v>45241</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>15</v>
       </c>
@@ -896,6 +902,9 @@
       <c r="D18" s="6">
         <v>45232</v>
       </c>
+      <c r="E18" s="6">
+        <v>45241</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
@@ -913,6 +922,9 @@
       <c r="D19" s="6">
         <v>45231</v>
       </c>
+      <c r="E19" s="6">
+        <v>45241</v>
+      </c>
       <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
@@ -930,6 +942,9 @@
       <c r="D20" s="6">
         <v>45224</v>
       </c>
+      <c r="E20" s="6">
+        <v>45241</v>
+      </c>
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
@@ -947,6 +962,9 @@
       <c r="D21" s="6">
         <v>45234</v>
       </c>
+      <c r="E21" s="6">
+        <v>45241</v>
+      </c>
       <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
@@ -964,6 +982,9 @@
       <c r="D22" s="6">
         <v>45222</v>
       </c>
+      <c r="E22" s="6">
+        <v>45241</v>
+      </c>
       <c r="G22" s="5" t="s">
         <v>11</v>
       </c>
@@ -984,6 +1005,9 @@
       <c r="D24" s="6">
         <v>45232</v>
       </c>
+      <c r="E24" s="6">
+        <v>45241</v>
+      </c>
       <c r="G24" s="5" t="s">
         <v>15</v>
       </c>
@@ -1001,6 +1025,9 @@
       <c r="D25" s="6">
         <v>45231</v>
       </c>
+      <c r="E25" s="6">
+        <v>45241</v>
+      </c>
       <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
@@ -1018,6 +1045,9 @@
       <c r="D26" s="6">
         <v>45224</v>
       </c>
+      <c r="E26" s="6">
+        <v>45241</v>
+      </c>
       <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
@@ -1035,6 +1065,9 @@
       <c r="D27" s="6">
         <v>45235</v>
       </c>
+      <c r="E27" s="6">
+        <v>45241</v>
+      </c>
       <c r="G27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1052,6 +1085,9 @@
       <c r="D28" s="6">
         <v>45222</v>
       </c>
+      <c r="E28" s="6">
+        <v>45241</v>
+      </c>
       <c r="G28" s="5" t="s">
         <v>11</v>
       </c>
@@ -1072,6 +1108,9 @@
       <c r="D30" s="6">
         <v>45232</v>
       </c>
+      <c r="E30" s="6">
+        <v>45241</v>
+      </c>
       <c r="G30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1089,6 +1128,9 @@
       <c r="D31" s="6">
         <v>45231</v>
       </c>
+      <c r="E31" s="6">
+        <v>45241</v>
+      </c>
       <c r="G31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1106,6 +1148,9 @@
       <c r="D32" s="6">
         <v>45224</v>
       </c>
+      <c r="E32" s="6">
+        <v>45241</v>
+      </c>
       <c r="G32" s="5" t="s">
         <v>11</v>
       </c>
@@ -1123,6 +1168,9 @@
       <c r="D33" s="6">
         <v>45235</v>
       </c>
+      <c r="E33" s="6">
+        <v>45241</v>
+      </c>
       <c r="G33" s="5" t="s">
         <v>15</v>
       </c>
@@ -1140,6 +1188,9 @@
       <c r="D34" s="6">
         <v>45222</v>
       </c>
+      <c r="E34" s="6">
+        <v>45241</v>
+      </c>
       <c r="G34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1160,6 +1211,9 @@
       <c r="D36" s="6">
         <v>45232</v>
       </c>
+      <c r="E36" s="6">
+        <v>45241</v>
+      </c>
       <c r="G36" s="5" t="s">
         <v>15</v>
       </c>
@@ -1177,6 +1231,9 @@
       <c r="D37" s="6">
         <v>45231</v>
       </c>
+      <c r="E37" s="6">
+        <v>45241</v>
+      </c>
       <c r="G37" s="5" t="s">
         <v>15</v>
       </c>
@@ -1194,6 +1251,9 @@
       <c r="D38" s="6">
         <v>45224</v>
       </c>
+      <c r="E38" s="6">
+        <v>45241</v>
+      </c>
       <c r="G38" s="5" t="s">
         <v>11</v>
       </c>
@@ -1211,6 +1271,9 @@
       <c r="D39" s="6">
         <v>45235</v>
       </c>
+      <c r="E39" s="6">
+        <v>45241</v>
+      </c>
       <c r="G39" s="5" t="s">
         <v>15</v>
       </c>
@@ -1228,6 +1291,9 @@
       <c r="D40" s="6">
         <v>45222</v>
       </c>
+      <c r="E40" s="6">
+        <v>45241</v>
+      </c>
       <c r="G40" s="5" t="s">
         <v>11</v>
       </c>
@@ -1248,6 +1314,9 @@
       <c r="D42" s="6">
         <v>45234</v>
       </c>
+      <c r="E42" s="6">
+        <v>45241</v>
+      </c>
       <c r="G42" s="5" t="s">
         <v>15</v>
       </c>
@@ -1265,6 +1334,9 @@
       <c r="D43" s="6">
         <v>45231</v>
       </c>
+      <c r="E43" s="6">
+        <v>45241</v>
+      </c>
       <c r="G43" s="5" t="s">
         <v>15</v>
       </c>
@@ -1282,6 +1354,9 @@
       <c r="D44" s="6">
         <v>45224</v>
       </c>
+      <c r="E44" s="6">
+        <v>45241</v>
+      </c>
       <c r="G44" s="5" t="s">
         <v>11</v>
       </c>
@@ -1299,6 +1374,9 @@
       <c r="D45" s="6">
         <v>45235</v>
       </c>
+      <c r="E45" s="6">
+        <v>45241</v>
+      </c>
       <c r="G45" s="5" t="s">
         <v>15</v>
       </c>
@@ -1316,6 +1394,9 @@
       <c r="D46" s="6">
         <v>45222</v>
       </c>
+      <c r="E46" s="6">
+        <v>45241</v>
+      </c>
       <c r="G46" s="5" t="s">
         <v>11</v>
       </c>
@@ -1336,6 +1417,9 @@
       <c r="D48" s="6">
         <v>45234</v>
       </c>
+      <c r="E48" s="6">
+        <v>45241</v>
+      </c>
       <c r="G48" s="5" t="s">
         <v>15</v>
       </c>
@@ -1353,6 +1437,9 @@
       <c r="D49" s="6">
         <v>45231</v>
       </c>
+      <c r="E49" s="6">
+        <v>45241</v>
+      </c>
       <c r="G49" s="5" t="s">
         <v>15</v>
       </c>
@@ -1370,6 +1457,9 @@
       <c r="D50" s="6">
         <v>45224</v>
       </c>
+      <c r="E50" s="6">
+        <v>45241</v>
+      </c>
       <c r="G50" s="5" t="s">
         <v>11</v>
       </c>
@@ -1384,6 +1474,12 @@
       <c r="C51" s="5">
         <v>8</v>
       </c>
+      <c r="D51" s="6">
+        <v>45235</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45241</v>
+      </c>
       <c r="G51" s="5" t="s">
         <v>15</v>
       </c>
@@ -1401,6 +1497,9 @@
       <c r="D52" s="6">
         <v>45222</v>
       </c>
+      <c r="E52" s="6">
+        <v>45241</v>
+      </c>
       <c r="G52" s="5" t="s">
         <v>11</v>
       </c>
@@ -1421,6 +1520,9 @@
       <c r="D54" s="6">
         <v>45233</v>
       </c>
+      <c r="E54" s="6">
+        <v>45241</v>
+      </c>
       <c r="G54" s="5" t="s">
         <v>15</v>
       </c>
@@ -1438,6 +1540,9 @@
       <c r="D55" s="6">
         <v>45231</v>
       </c>
+      <c r="E55" s="6">
+        <v>45241</v>
+      </c>
       <c r="G55" s="5" t="s">
         <v>15</v>
       </c>
@@ -1455,6 +1560,9 @@
       <c r="D56" s="6">
         <v>45224</v>
       </c>
+      <c r="E56" s="6">
+        <v>45241</v>
+      </c>
       <c r="G56" s="5" t="s">
         <v>11</v>
       </c>
@@ -1469,6 +1577,12 @@
       <c r="C57" s="5">
         <v>9</v>
       </c>
+      <c r="D57" s="6">
+        <v>45235</v>
+      </c>
+      <c r="E57" s="6">
+        <v>45241</v>
+      </c>
       <c r="G57" s="5" t="s">
         <v>15</v>
       </c>
@@ -1486,6 +1600,9 @@
       <c r="D58" s="6">
         <v>45222</v>
       </c>
+      <c r="E58" s="6">
+        <v>45241</v>
+      </c>
       <c r="G58" s="5" t="s">
         <v>11</v>
       </c>
@@ -1506,6 +1623,9 @@
       <c r="D60" s="6">
         <v>45234</v>
       </c>
+      <c r="E60" s="6">
+        <v>45241</v>
+      </c>
       <c r="G60" s="5" t="s">
         <v>15</v>
       </c>
@@ -1523,6 +1643,9 @@
       <c r="D61" s="6">
         <v>45231</v>
       </c>
+      <c r="E61" s="6">
+        <v>45241</v>
+      </c>
       <c r="G61" s="5" t="s">
         <v>15</v>
       </c>
@@ -1540,6 +1663,9 @@
       <c r="D62" s="6">
         <v>45224</v>
       </c>
+      <c r="E62" s="6">
+        <v>45241</v>
+      </c>
       <c r="G62" s="5" t="s">
         <v>11</v>
       </c>
@@ -1553,6 +1679,12 @@
       </c>
       <c r="C63" s="5">
         <v>10</v>
+      </c>
+      <c r="D63" s="6">
+        <v>45235</v>
+      </c>
+      <c r="E63" s="6">
+        <v>45241</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>15</v>

--- a/PCB NG/Plnění.xlsx
+++ b/PCB NG/Plnění.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\STL\PCB NG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D57C3-80B0-4FF2-B2B9-441A9C5635A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0D44A8-43E4-4A48-B8C9-91B24FFC883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0C12EAB3-5C5A-4529-92B3-802642319947}"/>
   </bookViews>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,11 +1781,11 @@
       </c>
       <c r="F2" s="11">
         <f>$B$10*E2</f>
-        <v>98.5</v>
+        <v>96.569400000000002</v>
       </c>
       <c r="G2" s="11">
         <f>$B$11*E2*$B$10</f>
-        <v>275.8</v>
+        <v>270.39431999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,11 +1806,11 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F7" si="0">$B$10*E3</f>
-        <v>13.750000000000002</v>
+        <v>13.480500000000003</v>
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G7" si="1">$B$11*E3*$B$10</f>
-        <v>38.5</v>
+        <v>37.745400000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.6569000000000003</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" si="1"/>
-        <v>13.299999999999997</v>
+        <v>13.039319999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,11 +1856,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>24.0198</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>68.599999999999994</v>
+        <v>67.255439999999993</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.9216000000000002</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>10.98048</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1906,11 +1906,11 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.9412000000000003</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
+        <v>8.23536</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="F8" s="12">
         <f>SUM(F2:F7)</f>
-        <v>148.5</v>
+        <v>145.58940000000004</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(G2:G7)</f>
-        <v>415.8</v>
+        <v>407.65032000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="11">
-        <v>25</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
